--- a/artfynd/A 63463-2025 artfynd.xlsx
+++ b/artfynd/A 63463-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131223136</v>
+        <v>131222821</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1147,12 +1147,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1161,13 +1156,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>449315</v>
+        <v>449374</v>
       </c>
       <c r="R5" t="n">
-        <v>6999445</v>
+        <v>6999458</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1196,7 +1191,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1206,12 +1201,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>Ringhack, färska, längs några meter på en gran vid kant mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1263,7 +1258,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131222821</v>
+        <v>131223136</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1294,7 +1289,12 @@
       <c r="I6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>449374</v>
+        <v>449315</v>
       </c>
       <c r="R6" t="n">
-        <v>6999458</v>
+        <v>6999445</v>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1542,7 +1542,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131222457</v>
+        <v>131223127</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Åmyren, Åmyren, Jmt</t>
+          <t>Byhögåsen, Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>449779</v>
+        <v>449320</v>
       </c>
       <c r="R8" t="n">
-        <v>6999560</v>
+        <v>6999445</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1689,7 +1689,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131223127</v>
+        <v>131231420</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1718,29 +1718,27 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>äldre spår</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Byhögåsen, Byhögåsen, Jmt</t>
+          <t>Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449320</v>
+        <v>449719</v>
       </c>
       <c r="R9" t="n">
-        <v>6999445</v>
+        <v>6999549</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1767,24 +1765,14 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>13:31</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>13:31</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1811,14 +1799,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1836,10 +1819,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131231273</v>
+        <v>131231421</v>
       </c>
       <c r="B10" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1847,28 +1830,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1878,10 +1862,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449640</v>
+        <v>449687</v>
       </c>
       <c r="R10" t="n">
-        <v>6999605</v>
+        <v>6999537</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1918,7 +1902,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav längs flera meter på en gammal flerstammig sälg. Här finns gott om både äldre och yngre bålar. Helt klart en indikation på skog med höga naturvärden!</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1927,7 +1911,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1936,29 +1919,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Gammal granskog med inslag av björk och sälg.</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1976,37 +1954,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131231276</v>
+        <v>131231403</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>92531</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -2014,10 +1996,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449610</v>
+        <v>449444</v>
       </c>
       <c r="R11" t="n">
-        <v>6999650</v>
+        <v>6999489</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2052,11 +2034,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gott om garnlav på flera granar.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -2082,14 +2059,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2107,10 +2079,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131231277</v>
+        <v>131231273</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2118,26 +2090,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2145,10 +2121,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449771</v>
+        <v>449640</v>
       </c>
       <c r="R12" t="n">
-        <v>6999558</v>
+        <v>6999605</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2185,7 +2161,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ymnigt med lunglav längs flera meter på en gammal flerstammig sälg. Här finns gott om både äldre och yngre bålar. Helt klart en indikation på skog med höga naturvärden!</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2203,24 +2179,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Gammal granskog med inslag av björk och sälg.</t>
+        </is>
+      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2238,7 +2219,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131231279</v>
+        <v>131231276</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -2276,10 +2257,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449722</v>
+        <v>449610</v>
       </c>
       <c r="R13" t="n">
-        <v>6999656</v>
+        <v>6999650</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2316,7 +2297,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Gott om garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2369,10 +2350,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131231272</v>
+        <v>131231277</v>
       </c>
       <c r="B14" t="n">
-        <v>80350</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2380,21 +2361,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2407,10 +2388,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449248</v>
+        <v>449771</v>
       </c>
       <c r="R14" t="n">
-        <v>6999432</v>
+        <v>6999558</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2447,7 +2428,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Här växer skrovellav på en böjd gammal sälg som står ca 10 m söder om en nyligen avverkad yta inom avverkningsanmälan A 63463-2025. Avverkningen på denna plats har sannolikt utförts illegalt av SCA inom ett aktivt revir för tretåig hackspett.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2465,29 +2446,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Gammal granskog med inslag av björk och sälg.</t>
-        </is>
-      </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2505,10 +2481,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131231278</v>
+        <v>131231413</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2516,26 +2492,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2543,10 +2524,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449763</v>
+        <v>449388</v>
       </c>
       <c r="R15" t="n">
-        <v>6999609</v>
+        <v>6999459</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2583,7 +2564,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2592,7 +2573,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2613,12 +2593,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2636,10 +2616,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131231280</v>
+        <v>131231418</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2647,26 +2627,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2674,10 +2659,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449639</v>
+        <v>449617</v>
       </c>
       <c r="R16" t="n">
-        <v>6999579</v>
+        <v>6999646</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2714,7 +2699,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Gott om garnlavsbålar på flera gamla granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2723,7 +2708,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2742,14 +2726,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2767,10 +2746,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131231281</v>
+        <v>131231464</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2778,26 +2757,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2805,10 +2788,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449569</v>
+        <v>449494</v>
       </c>
       <c r="R17" t="n">
-        <v>6999561</v>
+        <v>6999520</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2843,11 +2826,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på flera granar. Hyfsat rikligt.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2873,14 +2851,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2898,7 +2871,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131231282</v>
+        <v>131231279</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2936,10 +2909,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449559</v>
+        <v>449722</v>
       </c>
       <c r="R18" t="n">
-        <v>6999502</v>
+        <v>6999656</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2972,6 +2945,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -3024,10 +3002,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131231274</v>
+        <v>131231272</v>
       </c>
       <c r="B19" t="n">
-        <v>91829</v>
+        <v>80350</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3035,26 +3013,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -3062,10 +3040,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449562</v>
+        <v>449248</v>
       </c>
       <c r="R19" t="n">
-        <v>6999557</v>
+        <v>6999432</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3102,7 +3080,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Här växer skrovellav på en böjd gammal sälg som står ca 10 m söder om en nyligen avverkad yta inom avverkningsanmälan A 63463-2025. Avverkningen på denna plats har sannolikt utförts illegalt av SCA inom ett aktivt revir för tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3120,24 +3098,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Gammal granskog med inslag av björk och sälg.</t>
+        </is>
+      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3155,7 +3138,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131231275</v>
+        <v>131231280</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -3193,10 +3176,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449233</v>
+        <v>449639</v>
       </c>
       <c r="R20" t="n">
-        <v>6999424</v>
+        <v>6999579</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3231,6 +3214,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Gott om garnlavsbålar på flera gamla granar.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -3278,6 +3266,3090 @@
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131231278</v>
+      </c>
+      <c r="B21" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>449763</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6999609</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131231426</v>
+      </c>
+      <c r="B22" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>449572</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6999535</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131231415</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>449394</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6999468</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131231281</v>
+      </c>
+      <c r="B24" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>449569</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6999561</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar. Hyfsat rikligt.</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131231282</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>449559</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6999502</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131231401</v>
+      </c>
+      <c r="B26" t="n">
+        <v>91809</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>449639</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6999626</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131231399</v>
+      </c>
+      <c r="B27" t="n">
+        <v>91809</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>449456</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6999489</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131231274</v>
+      </c>
+      <c r="B28" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>449562</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6999557</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131231417</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>449423</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6999465</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131231275</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>449233</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6999424</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131231424</v>
+      </c>
+      <c r="B31" t="n">
+        <v>80349</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>449406</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6999460</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131231469</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80349</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>449689</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6999668</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Växer här på sälg.</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131231416</v>
+      </c>
+      <c r="B33" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>449456</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6999484</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131231430</v>
+      </c>
+      <c r="B34" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>449758</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6999616</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlavsbålar.</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131222457</v>
+      </c>
+      <c r="B35" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Åmyren, Åmyren, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>449779</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6999560</v>
+      </c>
+      <c r="S35" t="n">
+        <v>7</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131231425</v>
+      </c>
+      <c r="B36" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>449457</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6999561</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131231414</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>449386</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6999458</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131231402</v>
+      </c>
+      <c r="B38" t="n">
+        <v>91809</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>449563</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6999529</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131231400</v>
+      </c>
+      <c r="B39" t="n">
+        <v>91809</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>449460</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6999564</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131231423</v>
+      </c>
+      <c r="B40" t="n">
+        <v>79403</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Norsk näverlav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Platismatia norvegica</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>449559</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6999528</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Död gren</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Dead branch  # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>131231429</v>
+      </c>
+      <c r="B41" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>449725</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6999697</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlavsbålar.</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>131231471</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>449735</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6999573</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>131231422</v>
+      </c>
+      <c r="B43" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>449519</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6999620</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st talltitor i flerskiktad gammal granskog med förekomst av murknande björkhögstubbar för talltitans bohål. Här finns granskog med absolut höga naturvärden!</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Med inslag av björk och sälg.</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>131231470</v>
+      </c>
+      <c r="B44" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Byhögåsen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>449620</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6999568</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 63463-2025 artfynd.xlsx
+++ b/artfynd/A 63463-2025 artfynd.xlsx
@@ -1116,10 +1116,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131222821</v>
+        <v>131222541</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1127,42 +1127,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Byhögåsen, Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>449374</v>
+        <v>449710</v>
       </c>
       <c r="R5" t="n">
-        <v>6999458</v>
+        <v>6999599</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1191,7 +1186,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1201,12 +1196,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>På flera gamla granar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1235,12 +1230,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1258,7 +1253,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131223136</v>
+        <v>131222821</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1289,12 +1284,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1303,13 +1293,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>449315</v>
+        <v>449374</v>
       </c>
       <c r="R6" t="n">
-        <v>6999445</v>
+        <v>6999458</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1338,7 +1328,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1348,12 +1338,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>Ringhack, färska, längs några meter på en gran vid kant mot yngre skog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1405,10 +1395,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131222541</v>
+        <v>131223136</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1416,37 +1406,47 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Byhögåsen, Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>449710</v>
+        <v>449315</v>
       </c>
       <c r="R7" t="n">
-        <v>6999599</v>
+        <v>6999445</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På flera gamla granar.</t>
+          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131231420</v>
+        <v>131231273</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1700,29 +1700,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1732,10 +1731,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>449719</v>
+        <v>449640</v>
       </c>
       <c r="R9" t="n">
-        <v>6999549</v>
+        <v>6999605</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1772,7 +1771,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ymnigt med lunglav längs flera meter på en gammal flerstammig sälg. Här finns gott om både äldre och yngre bålar. Helt klart en indikation på skog med höga naturvärden!</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1781,6 +1780,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1789,19 +1789,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Gammal granskog med inslag av björk och sälg.</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1954,39 +1964,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131231403</v>
+        <v>131231420</v>
       </c>
       <c r="B11" t="n">
-        <v>92531</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1996,10 +2007,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449444</v>
+        <v>449719</v>
       </c>
       <c r="R11" t="n">
-        <v>6999489</v>
+        <v>6999549</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2034,13 +2045,17 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -2079,39 +2094,39 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131231273</v>
+        <v>131231403</v>
       </c>
       <c r="B12" t="n">
-        <v>80349</v>
+        <v>92531</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -2121,10 +2136,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449640</v>
+        <v>449444</v>
       </c>
       <c r="R12" t="n">
-        <v>6999605</v>
+        <v>6999489</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2159,11 +2174,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ymnigt med lunglav längs flera meter på en gammal flerstammig sälg. Här finns gott om både äldre och yngre bålar. Helt klart en indikation på skog med höga naturvärden!</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2179,29 +2189,19 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Gammal granskog med inslag av björk och sälg.</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131231413</v>
+        <v>131231418</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2514,7 +2514,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449388</v>
+        <v>449617</v>
       </c>
       <c r="R15" t="n">
-        <v>6999459</v>
+        <v>6999646</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2591,14 +2591,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2616,7 +2611,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131231418</v>
+        <v>131231413</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2649,7 +2644,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2659,10 +2654,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449617</v>
+        <v>449388</v>
       </c>
       <c r="R16" t="n">
-        <v>6999646</v>
+        <v>6999459</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2699,7 +2694,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2726,9 +2721,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131231464</v>
+        <v>131231272</v>
       </c>
       <c r="B17" t="n">
-        <v>91809</v>
+        <v>80350</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2757,30 +2757,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2788,10 +2784,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449494</v>
+        <v>449248</v>
       </c>
       <c r="R17" t="n">
-        <v>6999520</v>
+        <v>6999432</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2826,6 +2822,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Här växer skrovellav på en böjd gammal sälg som står ca 10 m söder om en nyligen avverkad yta inom avverkningsanmälan A 63463-2025. Avverkningen på denna plats har sannolikt utförts illegalt av SCA inom ett aktivt revir för tretåig hackspett.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2841,19 +2842,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Gammal granskog med inslag av björk och sälg.</t>
+        </is>
+      </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2871,10 +2882,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131231279</v>
+        <v>131231464</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2882,26 +2893,30 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2909,10 +2924,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449722</v>
+        <v>449494</v>
       </c>
       <c r="R18" t="n">
-        <v>6999656</v>
+        <v>6999520</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2947,11 +2962,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2977,14 +2987,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3002,10 +3007,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131231272</v>
+        <v>131231279</v>
       </c>
       <c r="B19" t="n">
-        <v>80350</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3013,21 +3018,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -3040,10 +3045,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449248</v>
+        <v>449722</v>
       </c>
       <c r="R19" t="n">
-        <v>6999432</v>
+        <v>6999656</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3080,7 +3085,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Här växer skrovellav på en böjd gammal sälg som står ca 10 m söder om en nyligen avverkad yta inom avverkningsanmälan A 63463-2025. Avverkningen på denna plats har sannolikt utförts illegalt av SCA inom ett aktivt revir för tretåig hackspett.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3098,29 +3103,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Gammal granskog med inslag av björk och sälg.</t>
-        </is>
-      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131231280</v>
+        <v>131231426</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3149,26 +3149,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449639</v>
+        <v>449572</v>
       </c>
       <c r="R20" t="n">
-        <v>6999579</v>
+        <v>6999535</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3214,11 +3214,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Gott om garnlavsbålar på flera gamla granar.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -3244,14 +3239,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3269,7 +3259,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131231278</v>
+        <v>131231280</v>
       </c>
       <c r="B21" t="n">
         <v>79244</v>
@@ -3307,10 +3297,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449763</v>
+        <v>449639</v>
       </c>
       <c r="R21" t="n">
-        <v>6999609</v>
+        <v>6999579</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3347,7 +3337,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Gott om garnlavsbålar på flera gamla granar.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3400,10 +3390,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131231426</v>
+        <v>131231278</v>
       </c>
       <c r="B22" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3411,26 +3401,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3438,10 +3428,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>449572</v>
+        <v>449763</v>
       </c>
       <c r="R22" t="n">
-        <v>6999535</v>
+        <v>6999609</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3476,6 +3466,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3501,9 +3496,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3656,10 +3656,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131231281</v>
+        <v>131231401</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3667,26 +3667,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3694,10 +3698,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>449569</v>
+        <v>449639</v>
       </c>
       <c r="R24" t="n">
-        <v>6999561</v>
+        <v>6999626</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3732,11 +3736,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på flera granar. Hyfsat rikligt.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3762,14 +3761,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3787,10 +3781,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131231282</v>
+        <v>131231399</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3798,26 +3792,30 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3825,10 +3823,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>449559</v>
+        <v>449456</v>
       </c>
       <c r="R25" t="n">
-        <v>6999502</v>
+        <v>6999489</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3888,14 +3886,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3913,10 +3906,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131231401</v>
+        <v>131231281</v>
       </c>
       <c r="B26" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3924,30 +3917,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3955,10 +3944,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>449639</v>
+        <v>449569</v>
       </c>
       <c r="R26" t="n">
-        <v>6999626</v>
+        <v>6999561</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3993,6 +3982,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar. Hyfsat rikligt.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -4018,9 +4012,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4038,10 +4037,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131231399</v>
+        <v>131231282</v>
       </c>
       <c r="B27" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4049,30 +4048,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4080,10 +4075,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>449456</v>
+        <v>449559</v>
       </c>
       <c r="R27" t="n">
-        <v>6999489</v>
+        <v>6999502</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4143,9 +4138,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131231274</v>
+        <v>131231417</v>
       </c>
       <c r="B28" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4174,24 +4174,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -4201,10 +4206,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>449562</v>
+        <v>449423</v>
       </c>
       <c r="R28" t="n">
-        <v>6999557</v>
+        <v>6999465</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4241,7 +4246,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4250,7 +4255,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4269,14 +4273,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4294,10 +4293,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131231417</v>
+        <v>131231274</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4305,29 +4304,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -4337,10 +4331,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>449423</v>
+        <v>449562</v>
       </c>
       <c r="R29" t="n">
-        <v>6999465</v>
+        <v>6999557</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4377,7 +4371,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4386,6 +4380,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4404,9 +4399,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131231275</v>
+        <v>131231469</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4435,21 +4435,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>449233</v>
+        <v>449689</v>
       </c>
       <c r="R30" t="n">
-        <v>6999424</v>
+        <v>6999668</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4500,6 +4500,11 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Växer här på sälg.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4517,22 +4522,22 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4676,10 +4681,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131231469</v>
+        <v>131231275</v>
       </c>
       <c r="B32" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4687,21 +4692,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4714,10 +4719,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>449689</v>
+        <v>449233</v>
       </c>
       <c r="R32" t="n">
-        <v>6999668</v>
+        <v>6999424</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4752,11 +4757,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Växer här på sälg.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4774,22 +4774,22 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131231430</v>
+        <v>131222457</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4948,40 +4948,47 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Byhögåsen, Jmt</t>
+          <t>Åmyren, Åmyren, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>449758</v>
+        <v>449779</v>
       </c>
       <c r="R34" t="n">
-        <v>6999616</v>
+        <v>6999560</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -5008,14 +5015,24 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Rikligt med garnlavsbålar.</t>
+          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5024,7 +5041,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -5045,12 +5061,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5068,10 +5084,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131222457</v>
+        <v>131231430</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5079,47 +5095,40 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Åmyren, Åmyren, Jmt</t>
+          <t>Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>449779</v>
+        <v>449758</v>
       </c>
       <c r="R35" t="n">
-        <v>6999560</v>
+        <v>6999616</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5146,24 +5155,14 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en gran vid kant mot yngre skog.</t>
+          <t>Rikligt med garnlavsbålar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5172,6 +5171,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131231414</v>
+        <v>131231402</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5352,29 +5352,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -5384,10 +5383,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>449386</v>
+        <v>449563</v>
       </c>
       <c r="R37" t="n">
-        <v>6999458</v>
+        <v>6999529</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5422,17 +5421,13 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5471,10 +5466,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131231402</v>
+        <v>131231414</v>
       </c>
       <c r="B38" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5482,28 +5477,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5513,10 +5509,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>449563</v>
+        <v>449386</v>
       </c>
       <c r="R38" t="n">
-        <v>6999529</v>
+        <v>6999458</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5551,13 +5547,17 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131231429</v>
+        <v>131231422</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5858,37 +5858,50 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>449725</v>
+        <v>449519</v>
       </c>
       <c r="R41" t="n">
-        <v>6999697</v>
+        <v>6999620</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5925,7 +5938,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Rikligt med garnlavsbålar.</t>
+          <t>Synobservation av 2 st talltitor i flerskiktad gammal granskog med förekomst av murknande björkhögstubbar för talltitans bohål. Här finns granskog med absolut höga naturvärden!</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5934,7 +5947,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5943,24 +5955,9 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Med inslag av björk och sälg.</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131231471</v>
+        <v>131231429</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -6016,10 +6013,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>449735</v>
+        <v>449725</v>
       </c>
       <c r="R42" t="n">
-        <v>6999573</v>
+        <v>6999697</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6052,6 +6049,11 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlavsbålar.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6104,10 +6106,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131231422</v>
+        <v>131231471</v>
       </c>
       <c r="B43" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6115,50 +6117,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Byhögåsen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>449519</v>
+        <v>449735</v>
       </c>
       <c r="R43" t="n">
-        <v>6999620</v>
+        <v>6999573</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6193,17 +6182,13 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st talltitor i flerskiktad gammal granskog med förekomst av murknande björkhögstubbar för talltitans bohål. Här finns granskog med absolut höga naturvärden!</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6212,9 +6197,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>Med inslag av björk och sälg.</t>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
